--- a/SP_Sklad/TempLate/InventoryAct.xlsx
+++ b/SP_Sklad/TempLate/InventoryAct.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="870" yWindow="435" windowWidth="14175" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="MatGroup">Лист1!$A$10:$M$13</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="WayBillItems">Лист1!$A$10:$M$11</definedName>
+    <definedName name="WayBillItems">Лист1!$A$11:$M$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>sum</t>
   </si>
@@ -71,6 +72,9 @@
   </si>
   <si>
     <t>Од. вим.</t>
+  </si>
+  <si>
+    <t>Разом по категорії</t>
   </si>
 </sst>
 </file>
@@ -78,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
-    <numFmt numFmtId="177" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -161,8 +165,29 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -215,19 +246,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="55"/>
-      </left>
-      <right style="hair">
-        <color indexed="55"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="55"/>
@@ -341,11 +359,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,77 +499,94 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -817,11 +959,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -842,17 +984,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="20" t="e">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="14" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
@@ -878,12 +1020,12 @@
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="35" t="e">
+      <c r="C3" s="40" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -927,40 +1069,40 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="22" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="7" t="s">
         <v>2</v>
       </c>
@@ -976,146 +1118,185 @@
       <c r="L8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="23"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17">
+      <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="39">
         <v>2</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18">
         <v>3</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="18">
         <v>4</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="18">
         <v>5</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="18">
         <v>6</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="18">
         <v>7</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="18">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="14" t="e">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="e">
+        <f>MatGroup_NAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="20" t="e">
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="33" t="e">
+      <c r="C11" s="38" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="14" t="e">
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="15" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H10" s="15" t="e">
+      <c r="H11" s="16" t="e">
         <f>WayBillItems_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="I10" s="16" t="e">
+      <c r="I11" s="17" t="e">
         <f>WayBillItems_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="J10" s="15" t="e">
+      <c r="J11" s="16" t="e">
         <f>WayBillItems_DISCOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="K10" s="16" t="e">
+      <c r="K11" s="17" t="e">
         <f>WayBillItems_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="L10" s="15" t="e">
-        <f>J10-H10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M10" s="19" t="e">
-        <f>(J10*K10)-(H10*I10)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="36" t="s">
+      <c r="L11" s="16" t="e">
+        <f>J11-H11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="21" t="e">
+        <f>(J11*K11)-(H11*I11)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="22"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="18" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="44" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="10" t="e">
+        <f>Commission_MAINNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="13"/>
+    </row>
     <row r="17" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="10" t="e">
-        <f>Commission_MAINNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
+    <row r="18" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="10" t="e">
+      <c r="D18" s="10" t="e">
         <f>Commission_FIRSTNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="10" t="e">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="10" t="e">
         <f>Commission_SECONDNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="13"/>
-    </row>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="10" t="e">
+        <f>Commission_THIRDNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="10" t="e">
-        <f>Commission_THIRDNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="13"/>
-    </row>
+    <row r="25" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1177,22 +1358,21 @@
     <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B10:M10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/InventoryAct.xlsx
+++ b/SP_Sklad/TempLate/InventoryAct.xlsx
@@ -16,7 +16,7 @@
     <definedName name="WayBillItems">Лист1!$A$11:$M$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -522,6 +522,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -582,12 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,11 +959,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -984,16 +984,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="14" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -1020,12 +1020,12 @@
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40" t="e">
+      <c r="C3" s="42" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1069,40 +1069,40 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="25" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="39"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="26"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="7" t="s">
         <v>2</v>
       </c>
@@ -1118,18 +1118,18 @@
       <c r="L8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="26"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="41">
         <v>2</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18">
         <v>3</v>
@@ -1151,21 +1151,21 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="e">
+      <c r="B10" s="43" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -1173,13 +1173,13 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="38" t="e">
+      <c r="C11" s="40" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="15" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1218,30 +1218,30 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="45" t="s">
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="44" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1295,69 +1295,6 @@
     <row r="23" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B13:L13"/>

--- a/SP_Sklad/TempLate/InventoryAct.xlsx
+++ b/SP_Sklad/TempLate/InventoryAct.xlsx
@@ -16,12 +16,12 @@
     <definedName name="WayBillItems">Лист1!$A$11:$M$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>sum</t>
   </si>
@@ -213,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -466,11 +466,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,12 +535,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -588,6 +595,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,11 +978,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -984,16 +1003,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="14" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -1020,12 +1039,12 @@
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="42" t="e">
+      <c r="C3" s="40" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1069,40 +1088,40 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="27" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="28"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="7" t="s">
         <v>2</v>
       </c>
@@ -1118,18 +1137,18 @@
       <c r="L8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="28"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>2</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18">
         <v>3</v>
@@ -1151,21 +1170,21 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="e">
+      <c r="B10" s="41" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -1173,13 +1192,13 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="40" t="e">
+      <c r="C11" s="38" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="15" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1218,54 +1237,57 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="24" t="s">
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+    </row>
+    <row r="14" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="10" t="e">
-        <f>Commission_MAINNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="13"/>
-    </row>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="44" t="e">
+        <f>SummaryField_SummAll</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="10" t="e">
-        <f>Commission_FIRSTNAME</f>
+        <f>Commission_MAINNAME</f>
         <v>#NAME?</v>
       </c>
       <c r="E18" s="10"/>
@@ -1274,8 +1296,11 @@
     </row>
     <row r="19" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="10" t="e">
-        <f>Commission_SECONDNAME</f>
+        <f>Commission_FIRSTNAME</f>
         <v>#NAME?</v>
       </c>
       <c r="E20" s="10"/>
@@ -1285,7 +1310,7 @@
     <row r="21" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="10" t="e">
-        <f>Commission_THIRDNAME</f>
+        <f>Commission_SECONDNAME</f>
         <v>#NAME?</v>
       </c>
       <c r="E22" s="10"/>
@@ -1293,10 +1318,21 @@
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="10" t="e">
+        <f>Commission_THIRDNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="13"/>
+    </row>
     <row r="25" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B15:L15"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="G7:G8"/>

--- a/SP_Sklad/TempLate/InventoryAct.xlsx
+++ b/SP_Sklad/TempLate/InventoryAct.xlsx
@@ -16,7 +16,7 @@
     <definedName name="WayBillItems">Лист1!$A$11:$M$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -50,12 +50,6 @@
     <t>Фактична</t>
   </si>
   <si>
-    <t>Різниця</t>
-  </si>
-  <si>
-    <t>Сума надлишку/недостачі</t>
-  </si>
-  <si>
     <t>Разом по акту</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>Разом по категорії</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сума </t>
+  </si>
+  <si>
+    <t>Різниця (надлишок/недостача)</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,23 +535,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -578,15 +581,27 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -595,18 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,7 +985,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -995,24 +998,24 @@
     <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="14" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -1037,14 +1040,14 @@
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="40" t="e">
+        <v>12</v>
+      </c>
+      <c r="C3" s="39" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1088,40 +1091,38 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="35" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="26"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="7" t="s">
         <v>2</v>
       </c>
@@ -1137,54 +1138,58 @@
       <c r="L8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="26"/>
+      <c r="M8" s="23" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="45">
         <v>2</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="18">
+        <v>3</v>
+      </c>
       <c r="H9" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L9" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M9" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="e">
+      <c r="B10" s="46" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -1192,13 +1197,13 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="38" t="e">
+      <c r="C11" s="44" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="15" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1237,45 +1242,45 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="45" t="s">
+      <c r="J12" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="44" t="e">
+      <c r="B15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="24" t="e">
         <f>SummaryField_SummAll</f>
         <v>#NAME?</v>
       </c>
@@ -1284,7 +1289,7 @@
     <row r="17" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="10" t="e">
         <f>Commission_MAINNAME</f>
@@ -1297,7 +1302,7 @@
     <row r="19" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="10" t="e">
         <f>Commission_FIRSTNAME</f>
@@ -1334,18 +1339,18 @@
   <mergeCells count="14">
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M7:M8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B10:M10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/InventoryAct.xlsx
+++ b/SP_Sklad/TempLate/InventoryAct.xlsx
@@ -1,27 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C61B33C-6E33-42EF-ACE7-2C489A5BBB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="435" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$M$13</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$O$13</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="WayBillItems">Лист1!$A$11:$M$12</definedName>
+    <definedName name="WayBillItems">Лист1!$A$11:$O$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$O$24</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>sum</t>
   </si>
@@ -68,22 +86,24 @@
     <t>Од. вим.</t>
   </si>
   <si>
-    <t>Разом по категорії</t>
-  </si>
-  <si>
     <t xml:space="preserve">сума </t>
   </si>
   <si>
     <t>Різниця (надлишок/недостача)</t>
+  </si>
+  <si>
+    <t>разом</t>
+  </si>
+  <si>
+    <t>Разом по категорії:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -213,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -417,18 +437,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="hair">
         <color indexed="55"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
         <color indexed="55"/>
       </right>
@@ -441,9 +504,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="55"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="55"/>
       </right>
@@ -467,15 +528,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
         <color indexed="55"/>
       </right>
       <top style="hair">
         <color indexed="55"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -483,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,8 +578,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -507,46 +592,55 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -574,15 +668,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -590,18 +686,15 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -610,6 +703,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,6 +794,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -736,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,9 +877,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,6 +929,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -979,9 +1121,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:M27"/>
+  <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -991,63 +1133,67 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="13.85546875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="2" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="14" t="e">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="12" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="39" t="e">
+      <c r="C3" s="42" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1056,16 +1202,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="e">
+      <c r="C4" s="5" t="e">
         <f>WayBillList_WHNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1075,287 +1223,333 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="e">
+      <c r="C5" s="11" t="e">
         <f>WayBillList_REASON</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="28" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="35"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="29"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="O8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="56">
+        <v>1</v>
+      </c>
+      <c r="C9" s="57">
+        <v>2</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="56">
         <v>3</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="45">
-        <v>2</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="18">
-        <v>3</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="H9" s="56">
         <v>4</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="56">
         <v>5</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="56">
         <v>6</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="56">
         <v>7</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="56">
         <v>8</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="56">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46" t="e">
+      <c r="N9" s="56">
+        <v>10</v>
+      </c>
+      <c r="O9" s="56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="51" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-    </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="20" t="e">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+    </row>
+    <row r="11" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="e">
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="44" t="e">
+      <c r="C11" s="50" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="15" t="e">
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="13" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H11" s="16" t="e">
+      <c r="H11" s="14" t="e">
         <f>WayBillItems_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="17" t="e">
+      <c r="I11" s="18" t="e">
         <f>WayBillItems_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="J11" s="16" t="e">
+      <c r="J11" s="18" t="e">
+        <f>H11*I11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K11" s="14" t="e">
         <f>WayBillItems_DISCOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="17" t="e">
+      <c r="L11" s="18" t="e">
         <f>WayBillItems_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="16" t="e">
-        <f>J11-H11</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M11" s="21" t="e">
-        <f>(J11*K11)-(H11*I11)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
+      <c r="M11" s="18" t="e">
+        <f>K11*L11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="14" t="e">
+        <f>K11-H11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O11" s="16" t="e">
+        <f>(K11*L11)-(H11*I11)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="40" t="s">
+      <c r="N12" s="23"/>
+      <c r="O12" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+    </row>
+    <row r="15" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="24" t="e">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="17" t="e">
         <f>SummaryField_SummAll</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="10" t="e">
+      <c r="D18" s="9" t="e">
         <f>Commission_MAINNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="10" t="e">
+      <c r="D20" s="9" t="e">
         <f>Commission_FIRSTNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="10" t="e">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="9" t="e">
         <f>Commission_SECONDNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="10" t="e">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="9" t="e">
         <f>Commission_THIRDNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="B13:N13"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J12:L12"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D12:G12"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CСторінка &amp;P из &amp;N</oddFooter>
   </headerFooter>

--- a/SP_Sklad/TempLate/InventoryAct.xlsx
+++ b/SP_Sklad/TempLate/InventoryAct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C61B33C-6E33-42EF-ACE7-2C489A5BBB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0870F322-D8B2-4A98-8BD5-84E3E1A7EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,24 +641,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,51 +715,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,7 +1126,7 @@
   <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1148,16 +1148,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="19"/>
       <c r="K1" s="12" t="e">
         <f>WayBillList_NUM</f>
@@ -1188,12 +1188,12 @@
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="42" t="e">
+      <c r="C3" s="57" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1241,40 +1241,40 @@
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="43" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="36" t="s">
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="49"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="35"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="35"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1301,74 +1301,74 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="56">
+      <c r="B9" s="33">
         <v>1</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="44">
         <v>2</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="56">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="33">
         <v>3</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="33">
         <v>4</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="33">
         <v>5</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="33">
         <v>6</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="33">
         <v>7</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="33">
         <v>8</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="33">
         <v>9</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="33">
         <v>10</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="33">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="51" t="e">
+      <c r="B10" s="45" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="47"/>
     </row>
     <row r="11" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="e">
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="50" t="e">
+      <c r="C11" s="43" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="13" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1409,12 +1409,12 @@
     <row r="12" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="20"/>
       <c r="I12" s="21"/>
       <c r="J12" s="22" t="s">
@@ -1431,19 +1431,19 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="29"/>
     </row>
     <row r="14" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1463,21 +1463,21 @@
       <c r="O14" s="32"/>
     </row>
     <row r="15" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
       <c r="O15" s="17" t="e">
         <f>SummaryField_SummAll</f>
         <v>#NAME?</v>
@@ -1531,6 +1531,11 @@
     <row r="27" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="B15:N15"/>
     <mergeCell ref="B13:N13"/>
@@ -1540,11 +1545,6 @@
     <mergeCell ref="B10:O10"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/InventoryAct.xlsx
+++ b/SP_Sklad/TempLate/InventoryAct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0870F322-D8B2-4A98-8BD5-84E3E1A7EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013F9D9F-B71C-40F9-A6B9-0FAD2C5E66DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$O$13</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$P$13</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="WayBillItems">Лист1!$A$11:$O$12</definedName>
+    <definedName name="WayBillItems">Лист1!$A$11:$P$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$O$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$P$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>sum</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Разом по категорії:</t>
+  </si>
+  <si>
+    <t>Артикул</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,6 +647,39 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -665,12 +701,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -686,36 +716,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1123,7 +1130,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:O27"/>
+  <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -1136,39 +1143,40 @@
     <col min="2" max="2" width="9.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="2" customWidth="1"/>
-    <col min="14" max="15" width="13.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="13.85546875" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="12" t="e">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="12" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1183,17 +1191,18 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="57" t="e">
+      <c r="C3" s="44" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1204,8 +1213,9 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1225,8 +1235,9 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1236,80 +1247,84 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="2:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="41" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="I7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="34" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="48" t="s">
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="49"/>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="42"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="6" t="s">
+      <c r="P7" s="40"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="33">
         <v>1</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="53">
         <v>2</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="33">
         <v>3</v>
       </c>
@@ -1337,116 +1352,126 @@
       <c r="O9" s="33">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="45" t="e">
+      <c r="P9" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="54" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="47"/>
-    </row>
-    <row r="11" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
+    </row>
+    <row r="11" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="e">
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="43" t="e">
+      <c r="C11" s="52" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="13" t="e">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="34" t="e">
+        <f>WayBillItems_Artikul</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H11" s="13" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H11" s="14" t="e">
+      <c r="I11" s="14" t="e">
         <f>WayBillItems_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="18" t="e">
+      <c r="J11" s="18" t="e">
         <f>WayBillItems_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="J11" s="18" t="e">
-        <f>H11*I11</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K11" s="14" t="e">
+      <c r="K11" s="18" t="e">
+        <f>I11*J11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L11" s="14" t="e">
         <f>WayBillItems_DISCOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="18" t="e">
+      <c r="M11" s="18" t="e">
         <f>WayBillItems_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="M11" s="18" t="e">
-        <f>K11*L11</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N11" s="14" t="e">
-        <f>K11-H11</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O11" s="16" t="e">
-        <f>(K11*L11)-(H11*I11)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="18" t="e">
+        <f>L11*M11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O11" s="14" t="e">
+        <f>L11-I11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P11" s="16" t="e">
+        <f>(L11*M11)-(I11*J11)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="23"/>
+      <c r="P12" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="29"/>
-    </row>
-    <row r="14" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -1460,32 +1485,34 @@
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
-    </row>
-    <row r="15" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="37" t="s">
+      <c r="O14" s="31"/>
+      <c r="P14" s="32"/>
+    </row>
+    <row r="15" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="17" t="e">
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="17" t="e">
         <f>SummaryField_SummAll</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1495,9 +1522,10 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1507,49 +1535,53 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="9" t="e">
         <f>Commission_SECONDNAME</f>
         <v>#NAME?</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="9" t="e">
         <f>Commission_THIRDNAME</f>
         <v>#NAME?</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B1:I1"/>
+  <mergeCells count="15">
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CСторінка &amp;P из &amp;N</oddFooter>
   </headerFooter>
